--- a/Practice/Air_plant_multi/Data_2.xlsx
+++ b/Practice/Air_plant_multi/Data_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Math_project\Practice\Test_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Math_project\Practice\Air_plant_multi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42538D-D18E-476A-BEA5-F560EF33A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52957F-3476-42F1-9D67-8A81F2FB9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校正点标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三问点标记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>Z坐标（单位: m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -507,7 +507,7 @@
         <v>5000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7027,7 +7027,7 @@
         <v>5499.6110948964297</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F328">
         <v>0</v>
